--- a/template/potem8.xlsx
+++ b/template/potem8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BDC133-7A55-B342-AE5D-5A2219D012A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5DDF02-CEF5-4D13-AF60-259B03F04607}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="465" windowWidth="32520" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12413R" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>永立信服裝</t>
   </si>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -252,6 +252,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,27 +439,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -485,22 +481,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,7 +505,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,6 +515,40 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -576,7 +589,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="4959350"/>
+          <a:off x="0" y="5038725"/>
           <a:ext cx="7410450" cy="38100"/>
           <a:chOff x="1640775" y="3780000"/>
           <a:chExt cx="7410450" cy="0"/>
@@ -919,28 +932,28 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="6" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -963,14 +976,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -993,14 +1006,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1023,12 +1036,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1051,150 +1064,150 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="6" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="27" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="42" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1217,76 +1230,76 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="30" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:26" ht="30" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="49"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:26" ht="30" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="30" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:26" ht="26.25" customHeight="1">
       <c r="A28" s="6"/>
@@ -7138,7 +7151,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>